--- a/設計書/01_バッチ設計書/SQL設計書.xlsx
+++ b/設計書/01_バッチ設計書/SQL設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="一覧表" sheetId="3" r:id="rId1"/>
@@ -536,25 +536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力項目.陽性者数の情報の更新日が設定されている場合以下の追加。</t>
-    <rPh sb="0" eb="4">
-      <t>ニュウリョクコウモク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>当日or前々日の都道府県の感染者のレコード件数を取得する。</t>
     <rPh sb="0" eb="2">
       <t>トウジツ</t>
@@ -593,6 +574,28 @@
   </si>
   <si>
     <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力項目.陽性者数の情報の更新日が設定されている場合以下の式を追加。</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクコウモク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1097,7 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1161,7 +1164,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1186,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="X51" sqref="X51:Y53"/>
     </sheetView>
   </sheetViews>
@@ -4125,8 +4128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -4295,7 +4298,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -4686,7 +4689,7 @@
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -4734,7 +4737,7 @@
     </row>
     <row r="4" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="8"/>
       <c r="F4" s="8"/>
@@ -4754,7 +4757,7 @@
     </row>
     <row r="5" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="8"/>
       <c r="F5" s="8"/>
@@ -4775,7 +4778,7 @@
     <row r="6" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8"/>
       <c r="C6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -4873,7 +4876,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -4912,7 +4915,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
